--- a/Financial Modelling Prep Library/Company Financial Data/NVDA/annual/income_statements.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/NVDA/annual/income_statements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="153">
   <si>
     <t>date</t>
   </si>
@@ -136,6 +136,36 @@
     <t>index</t>
   </si>
   <si>
+    <t>NVDA-FY-2003</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2004</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2005</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2006</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2007</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2008</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2009</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2010</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2011</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2012</t>
+  </si>
+  <si>
     <t>NVDA-FY-2013</t>
   </si>
   <si>
@@ -175,6 +205,36 @@
     <t>0001045810</t>
   </si>
   <si>
+    <t>2003-04-25</t>
+  </si>
+  <si>
+    <t>2004-01-31</t>
+  </si>
+  <si>
+    <t>2005-03-22</t>
+  </si>
+  <si>
+    <t>2006-03-16</t>
+  </si>
+  <si>
+    <t>2007-03-16</t>
+  </si>
+  <si>
+    <t>2008-01-31</t>
+  </si>
+  <si>
+    <t>2009-01-31</t>
+  </si>
+  <si>
+    <t>2010-03-18</t>
+  </si>
+  <si>
+    <t>2011-03-16</t>
+  </si>
+  <si>
+    <t>2012-03-13</t>
+  </si>
+  <si>
     <t>2013-03-12</t>
   </si>
   <si>
@@ -205,6 +265,36 @@
     <t>2022-03-18</t>
   </si>
   <si>
+    <t>2003-04-24 21:55:57</t>
+  </si>
+  <si>
+    <t>2004-01-30 19:00:00</t>
+  </si>
+  <si>
+    <t>2005-03-22 14:33:30</t>
+  </si>
+  <si>
+    <t>2006-03-16 17:08:37</t>
+  </si>
+  <si>
+    <t>2007-03-16 14:12:51</t>
+  </si>
+  <si>
+    <t>2008-01-30 19:00:00</t>
+  </si>
+  <si>
+    <t>2009-01-30 19:00:00</t>
+  </si>
+  <si>
+    <t>2010-03-17 19:16:55</t>
+  </si>
+  <si>
+    <t>2011-03-16 16:33:51</t>
+  </si>
+  <si>
+    <t>2012-03-13 16:56:38</t>
+  </si>
+  <si>
     <t>2013-03-12 17:03:06</t>
   </si>
   <si>
@@ -235,6 +325,36 @@
     <t>2022-02-15 19:00:00</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
@@ -268,6 +388,27 @@
     <t>FY</t>
   </si>
   <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104596903001196/0001045969-03-001196-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581005000008/0001045810-05-000008-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581006000014/fy2006annualreportonform10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581007000008/fy2007annualreportonform10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581010000006/0001045810-10-000006-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581011000015/fy2011form10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581012000013/0001045810-12-000013-index.html</t>
+  </si>
+  <si>
     <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581013000008/0001045810-13-000008-index.html</t>
   </si>
   <si>
@@ -296,6 +437,18 @@
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581022000036/0001045810-22-000036-index.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104596903001196/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581005000008/annualreport.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581010000006/fy2010form10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581012000013/nvda-2012x10k.htm</t>
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581013000008/nvda-2013x10k.htm</t>
@@ -694,7 +847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -827,43 +980,43 @@
         <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>41301</v>
+        <v>37647</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J2">
-        <v>4280159000</v>
+        <v>1909447000</v>
       </c>
       <c r="K2">
-        <v>2053816000</v>
+        <v>1333435000</v>
       </c>
       <c r="L2">
-        <v>2226343000</v>
+        <v>576012000</v>
       </c>
       <c r="M2">
-        <v>0.5201542746426009</v>
+        <v>0.3016643038534194</v>
       </c>
       <c r="N2">
-        <v>1147282000</v>
+        <v>224873000</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -872,76 +1025,76 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>430822000</v>
+        <v>207153000</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1578104000</v>
+        <v>432026000</v>
       </c>
       <c r="T2">
-        <v>3631920000</v>
+        <v>1765461000</v>
       </c>
       <c r="U2">
-        <v>19908000</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>3294000</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>226235000</v>
+        <v>58216000</v>
       </c>
       <c r="X2">
-        <v>891568000</v>
+        <v>208773000</v>
       </c>
       <c r="Y2">
-        <v>0.2083025420317329</v>
+        <v>0.1093368917807093</v>
       </c>
       <c r="Z2">
-        <v>648239000</v>
+        <v>143986000</v>
       </c>
       <c r="AA2">
-        <v>0.1514520839062287</v>
+        <v>0.07540717286209044</v>
       </c>
       <c r="AB2">
-        <v>13800000</v>
+        <v>6571000</v>
       </c>
       <c r="AC2">
-        <v>662039000</v>
+        <v>150557000</v>
       </c>
       <c r="AD2">
-        <v>0.1546762631948953</v>
+        <v>0.07884848335669961</v>
       </c>
       <c r="AE2">
-        <v>99503000</v>
+        <v>59758000</v>
       </c>
       <c r="AF2">
-        <v>562536000</v>
+        <v>90799000</v>
       </c>
       <c r="AG2">
-        <v>0.1314287623427074</v>
+        <v>0.04755251127682517</v>
       </c>
       <c r="AH2">
-        <v>0.2275</v>
+        <v>0.049191</v>
       </c>
       <c r="AI2">
-        <v>0.225</v>
+        <v>0.045023</v>
       </c>
       <c r="AJ2">
-        <v>2477296000</v>
+        <v>1841235384</v>
       </c>
       <c r="AK2">
-        <v>2499828000</v>
+        <v>2019706148</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="AN2">
-        <v>2472685714.285714</v>
+        <v>1845845784.798032</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -949,43 +1102,43 @@
         <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>41665</v>
+        <v>38017</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J3">
-        <v>4130162000</v>
+        <v>1822945000</v>
       </c>
       <c r="K3">
-        <v>1862399000</v>
+        <v>1294067000</v>
       </c>
       <c r="L3">
-        <v>2267763000</v>
+        <v>528878000</v>
       </c>
       <c r="M3">
-        <v>0.5490736198725377</v>
+        <v>0.2901228506619783</v>
       </c>
       <c r="N3">
-        <v>1335834000</v>
+        <v>269972000</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -994,76 +1147,67 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>435702000</v>
+        <v>165249000</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1771536000</v>
+        <v>435221000</v>
       </c>
       <c r="T3">
-        <v>3633935000</v>
-      </c>
-      <c r="U3">
-        <v>17119000</v>
+        <v>1729288000</v>
       </c>
       <c r="V3">
-        <v>10443000</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>239148000</v>
+        <v>82688000</v>
       </c>
       <c r="X3">
-        <v>759845000</v>
+        <v>169361000</v>
       </c>
       <c r="Y3">
-        <v>0.1839746237556784</v>
+        <v>0.09290516170262954</v>
       </c>
       <c r="Z3">
-        <v>496227000</v>
+        <v>90157000</v>
       </c>
       <c r="AA3">
-        <v>0.1201471031886885</v>
+        <v>0.04945678558596118</v>
       </c>
       <c r="AB3">
-        <v>14027000</v>
+        <v>-3484000</v>
       </c>
       <c r="AC3">
-        <v>510254000</v>
+        <v>86673000</v>
       </c>
       <c r="AD3">
-        <v>0.1235433380095018</v>
+        <v>0.04754559243422045</v>
       </c>
       <c r="AE3">
-        <v>70264000</v>
+        <v>12254000</v>
       </c>
       <c r="AF3">
-        <v>439990000</v>
+        <v>74419000</v>
       </c>
       <c r="AG3">
-        <v>0.1065309302637524</v>
+        <v>0.04082350262898771</v>
       </c>
       <c r="AH3">
-        <v>0.1875</v>
+        <v>0.038353</v>
       </c>
       <c r="AI3">
-        <v>0.185</v>
+        <v>0.035851</v>
       </c>
       <c r="AJ3">
-        <v>2351572000</v>
+        <v>1930122940</v>
       </c>
       <c r="AK3">
-        <v>2378068000</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>85</v>
+        <v>2071448276</v>
       </c>
       <c r="AN3">
-        <v>2346613333.333333</v>
+        <v>1940369723.35932</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1071,43 +1215,43 @@
         <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>42029</v>
+        <v>38382</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J4">
-        <v>4681507000</v>
+        <v>2010033000</v>
       </c>
       <c r="K4">
-        <v>2082030000</v>
+        <v>1360547000</v>
       </c>
       <c r="L4">
-        <v>2599477000</v>
+        <v>649486000</v>
       </c>
       <c r="M4">
-        <v>0.5552650033418726</v>
+        <v>0.3231220581950645</v>
       </c>
       <c r="N4">
-        <v>1359725000</v>
+        <v>335104000</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1116,76 +1260,76 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>480763000</v>
+        <v>200789000</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1840488000</v>
+        <v>535893000</v>
       </c>
       <c r="T4">
-        <v>3922518000</v>
+        <v>1896440000</v>
       </c>
       <c r="U4">
-        <v>28090000</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>46133000</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>220125000</v>
+        <v>102597000</v>
       </c>
       <c r="X4">
-        <v>1021094000</v>
+        <v>228042000</v>
       </c>
       <c r="Y4">
-        <v>0.218112244625502</v>
+        <v>0.1134518687006631</v>
       </c>
       <c r="Z4">
-        <v>758989000</v>
+        <v>113593000</v>
       </c>
       <c r="AA4">
-        <v>0.1621249311386269</v>
+        <v>0.05651300252284415</v>
       </c>
       <c r="AB4">
-        <v>-4153000</v>
+        <v>11852000</v>
       </c>
       <c r="AC4">
-        <v>754836000</v>
+        <v>125445000</v>
       </c>
       <c r="AD4">
-        <v>0.1612378236324329</v>
+        <v>0.062409423128874</v>
       </c>
       <c r="AE4">
-        <v>124249000</v>
+        <v>25089000</v>
       </c>
       <c r="AF4">
-        <v>630587000</v>
+        <v>100356000</v>
       </c>
       <c r="AG4">
-        <v>0.1346974382394387</v>
+        <v>0.0499275385030992</v>
       </c>
       <c r="AH4">
-        <v>0.285</v>
+        <v>0.050025</v>
       </c>
       <c r="AI4">
-        <v>0.28</v>
+        <v>0.047524</v>
       </c>
       <c r="AJ4">
-        <v>2209276000</v>
+        <v>1991748124</v>
       </c>
       <c r="AK4">
-        <v>2252272000</v>
+        <v>2117637180</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="AN4">
-        <v>2212585964.912281</v>
+        <v>2006116941.529235</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1193,43 +1337,43 @@
         <v>43</v>
       </c>
       <c r="B5" s="2">
-        <v>42400</v>
+        <v>38746</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J5">
-        <v>5010000000</v>
+        <v>2375687000</v>
       </c>
       <c r="K5">
-        <v>2199000000</v>
+        <v>1464892000</v>
       </c>
       <c r="L5">
-        <v>2811000000</v>
+        <v>910795000</v>
       </c>
       <c r="M5">
-        <v>0.5610778443113772</v>
+        <v>0.3833817333680742</v>
       </c>
       <c r="N5">
-        <v>1331000000</v>
+        <v>352099000</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1238,76 +1382,76 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>602000000</v>
+        <v>204441000</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>14158000</v>
       </c>
       <c r="S5">
-        <v>1933000000</v>
+        <v>570698000</v>
       </c>
       <c r="T5">
-        <v>4132000000</v>
+        <v>2035590000</v>
       </c>
       <c r="U5">
-        <v>39000000</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>47000000</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>197000000</v>
+        <v>97977000</v>
       </c>
       <c r="X5">
-        <v>987000000</v>
+        <v>458198000</v>
       </c>
       <c r="Y5">
-        <v>0.1970059880239521</v>
+        <v>0.192869683590473</v>
       </c>
       <c r="Z5">
-        <v>747000000</v>
+        <v>340097000</v>
       </c>
       <c r="AA5">
-        <v>0.1491017964071856</v>
+        <v>0.1431573267017077</v>
       </c>
       <c r="AB5">
-        <v>-4000000</v>
+        <v>20124000</v>
       </c>
       <c r="AC5">
-        <v>743000000</v>
+        <v>360221000</v>
       </c>
       <c r="AD5">
-        <v>0.1483033932135729</v>
+        <v>0.1516281395655236</v>
       </c>
       <c r="AE5">
-        <v>129000000</v>
+        <v>57635000</v>
       </c>
       <c r="AF5">
-        <v>614000000</v>
+        <v>302586000</v>
       </c>
       <c r="AG5">
-        <v>0.1225548902195609</v>
+        <v>0.1273677887701536</v>
       </c>
       <c r="AH5">
-        <v>0.2825</v>
+        <v>0.148408</v>
       </c>
       <c r="AI5">
-        <v>0.27</v>
+        <v>0.137569</v>
       </c>
       <c r="AJ5">
-        <v>2172000000</v>
+        <v>2035262368</v>
       </c>
       <c r="AK5">
-        <v>2276000000</v>
+        <v>2194314844</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="AN5">
-        <v>2173451327.433629</v>
+        <v>2038879305.697806</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1315,43 +1459,43 @@
         <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>42764</v>
+        <v>39110</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J6">
-        <v>6910000000</v>
+        <v>3068771000</v>
       </c>
       <c r="K6">
-        <v>2847000000</v>
+        <v>1768322000</v>
       </c>
       <c r="L6">
-        <v>4063000000</v>
+        <v>1300449000</v>
       </c>
       <c r="M6">
-        <v>0.5879884225759768</v>
+        <v>0.4237686683040214</v>
       </c>
       <c r="N6">
-        <v>1463000000</v>
+        <v>553467000</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1360,76 +1504,76 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>663000000</v>
+        <v>293530000</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>2126000000</v>
+        <v>846997000</v>
       </c>
       <c r="T6">
-        <v>4973000000</v>
+        <v>2615319000</v>
       </c>
       <c r="U6">
-        <v>54000000</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>58000000</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>187000000</v>
+        <v>107562000</v>
       </c>
       <c r="X6">
-        <v>2150000000</v>
+        <v>602746000</v>
       </c>
       <c r="Y6">
-        <v>0.3111432706222865</v>
+        <v>0.1964128310649442</v>
       </c>
       <c r="Z6">
-        <v>1934000000</v>
+        <v>453452000</v>
       </c>
       <c r="AA6">
-        <v>0.2798842257597685</v>
+        <v>0.1477633880142898</v>
       </c>
       <c r="AB6">
-        <v>-29000000</v>
+        <v>41028000</v>
       </c>
       <c r="AC6">
-        <v>1905000000</v>
+        <v>494480000</v>
       </c>
       <c r="AD6">
-        <v>0.2756874095513748</v>
+        <v>0.1611329095589081</v>
       </c>
       <c r="AE6">
-        <v>239000000</v>
+        <v>46350000</v>
       </c>
       <c r="AF6">
-        <v>1666000000</v>
+        <v>448834000</v>
       </c>
       <c r="AG6">
-        <v>0.2410998552821997</v>
+        <v>0.1462585510616465</v>
       </c>
       <c r="AH6">
-        <v>0.77</v>
+        <v>0.211773</v>
       </c>
       <c r="AI6">
-        <v>0.6425</v>
+        <v>0.191763</v>
       </c>
       <c r="AJ6">
-        <v>2164000000</v>
+        <v>2113367316</v>
       </c>
       <c r="AK6">
-        <v>2596000000</v>
+        <v>2347850076</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="AN6">
-        <v>2163636363.636364</v>
+        <v>2119410878.629476</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1437,43 +1581,43 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>43128</v>
+        <v>39478</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J7">
-        <v>9714000000</v>
+        <v>4097860000</v>
       </c>
       <c r="K7">
-        <v>3892000000</v>
+        <v>2228580000</v>
       </c>
       <c r="L7">
-        <v>5822000000</v>
+        <v>1869280000</v>
       </c>
       <c r="M7">
-        <v>0.5993411570928556</v>
+        <v>0.4561600445110375</v>
       </c>
       <c r="N7">
-        <v>1797000000</v>
+        <v>691637000</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1482,76 +1626,67 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>815000000</v>
+        <v>341297000</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>2612000000</v>
+        <v>1032934000</v>
       </c>
       <c r="T7">
-        <v>6504000000</v>
-      </c>
-      <c r="U7">
-        <v>69000000</v>
+        <v>3261514000</v>
       </c>
       <c r="V7">
-        <v>61000000</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>199000000</v>
+        <v>133192000</v>
       </c>
       <c r="X7">
-        <v>3456000000</v>
+        <v>1034533000</v>
       </c>
       <c r="Y7">
-        <v>0.355775169857937</v>
+        <v>0.2524568921339431</v>
       </c>
       <c r="Z7">
-        <v>3210000000</v>
+        <v>836346000</v>
       </c>
       <c r="AA7">
-        <v>0.3304508956145769</v>
+        <v>0.2040933560443744</v>
       </c>
       <c r="AB7">
-        <v>-14000000</v>
+        <v>64995000</v>
       </c>
       <c r="AC7">
-        <v>3196000000</v>
+        <v>901341000</v>
       </c>
       <c r="AD7">
-        <v>0.3290096767551987</v>
+        <v>0.2199540735896297</v>
       </c>
       <c r="AE7">
-        <v>149000000</v>
+        <v>103696000</v>
       </c>
       <c r="AF7">
-        <v>3047000000</v>
+        <v>797645000</v>
       </c>
       <c r="AG7">
-        <v>0.3136709903232448</v>
+        <v>0.194649158341183</v>
       </c>
       <c r="AH7">
-        <v>1.2725</v>
+        <v>0.3625</v>
       </c>
       <c r="AI7">
-        <v>1.205</v>
+        <v>0.3275</v>
       </c>
       <c r="AJ7">
-        <v>2396000000</v>
+        <v>2200432000</v>
       </c>
       <c r="AK7">
-        <v>2528000000</v>
-      </c>
-      <c r="AL7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>97</v>
+        <v>2426928000</v>
       </c>
       <c r="AN7">
-        <v>2394499017.681729</v>
+        <v>2200400000</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1559,43 +1694,43 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>43492</v>
+        <v>39844</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J8">
-        <v>11716000000</v>
+        <v>3424859000</v>
       </c>
       <c r="K8">
-        <v>4545000000</v>
+        <v>2250590000</v>
       </c>
       <c r="L8">
-        <v>7171000000</v>
+        <v>1174269000</v>
       </c>
       <c r="M8">
-        <v>0.6120689655172413</v>
+        <v>0.3428663778567235</v>
       </c>
       <c r="N8">
-        <v>2376000000</v>
+        <v>855879000</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1604,76 +1739,67 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>991000000</v>
+        <v>362222000</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>3367000000</v>
+        <v>1218101000</v>
       </c>
       <c r="T8">
-        <v>7912000000</v>
-      </c>
-      <c r="U8">
-        <v>136000000</v>
+        <v>3468691000</v>
       </c>
       <c r="V8">
-        <v>58000000</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>262000000</v>
+        <v>185023000</v>
       </c>
       <c r="X8">
-        <v>4216000000</v>
+        <v>142069000</v>
       </c>
       <c r="Y8">
-        <v>0.3598497780812564</v>
+        <v>0.04148170771409859</v>
       </c>
       <c r="Z8">
-        <v>3804000000</v>
+        <v>-70700000</v>
       </c>
       <c r="AA8">
-        <v>0.3246841925571868</v>
+        <v>-0.02064318560267736</v>
       </c>
       <c r="AB8">
-        <v>92000000</v>
+        <v>27746000</v>
       </c>
       <c r="AC8">
-        <v>3896000000</v>
+        <v>-42954000</v>
       </c>
       <c r="AD8">
-        <v>0.3325367019460567</v>
+        <v>-0.01254183018921363</v>
       </c>
       <c r="AE8">
-        <v>-245000000</v>
+        <v>-12913000</v>
       </c>
       <c r="AF8">
-        <v>4141000000</v>
+        <v>-30041000</v>
       </c>
       <c r="AG8">
-        <v>0.353448275862069</v>
+        <v>-0.008771455992786857</v>
       </c>
       <c r="AH8">
-        <v>1.7025</v>
+        <v>-0.0125</v>
       </c>
       <c r="AI8">
-        <v>1.6575</v>
+        <v>-0.0125</v>
       </c>
       <c r="AJ8">
-        <v>2432000000</v>
+        <v>2192504000</v>
       </c>
       <c r="AK8">
-        <v>2500000000</v>
-      </c>
-      <c r="AL8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM8" s="3" t="s">
-        <v>98</v>
+        <v>2192504000</v>
       </c>
       <c r="AN8">
-        <v>2432305433.186491</v>
+        <v>2403280000</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1681,43 +1807,43 @@
         <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>43856</v>
+        <v>40209</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J9">
-        <v>10918000000</v>
+        <v>3326445000</v>
       </c>
       <c r="K9">
-        <v>4150000000</v>
+        <v>2149522000</v>
       </c>
       <c r="L9">
-        <v>6768000000</v>
+        <v>1176923000</v>
       </c>
       <c r="M9">
-        <v>0.619893753434695</v>
+        <v>0.3538080443235947</v>
       </c>
       <c r="N9">
-        <v>2829000000</v>
+        <v>908851000</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1726,76 +1852,76 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1093000000</v>
+        <v>367017000</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>3922000000</v>
+        <v>1275868000</v>
       </c>
       <c r="T9">
-        <v>8072000000</v>
+        <v>3425390000</v>
       </c>
       <c r="U9">
-        <v>178000000</v>
+        <v>23115000</v>
       </c>
       <c r="V9">
-        <v>52000000</v>
+        <v>3320000</v>
       </c>
       <c r="W9">
-        <v>381000000</v>
+        <v>196664000</v>
       </c>
       <c r="X9">
-        <v>3403000000</v>
+        <v>117690000</v>
       </c>
       <c r="Y9">
-        <v>0.3116871221835501</v>
+        <v>0.03538011300352178</v>
       </c>
       <c r="Z9">
-        <v>2846000000</v>
+        <v>-98945000</v>
       </c>
       <c r="AA9">
-        <v>0.2606704524638212</v>
+        <v>-0.02974496797632307</v>
       </c>
       <c r="AB9">
-        <v>124000000</v>
+        <v>16651000</v>
       </c>
       <c r="AC9">
-        <v>2970000000</v>
+        <v>-82294000</v>
       </c>
       <c r="AD9">
-        <v>0.2720278439274593</v>
+        <v>-0.02473932381265886</v>
       </c>
       <c r="AE9">
-        <v>174000000</v>
+        <v>-14307000</v>
       </c>
       <c r="AF9">
-        <v>2796000000</v>
+        <v>-67987000</v>
       </c>
       <c r="AG9">
-        <v>0.2560908591317091</v>
+        <v>-0.02043833582097404</v>
       </c>
       <c r="AH9">
-        <v>1.1475</v>
+        <v>-0.03</v>
       </c>
       <c r="AI9">
-        <v>1.13</v>
+        <v>-0.03</v>
       </c>
       <c r="AJ9">
-        <v>2436000000</v>
+        <v>2198296000</v>
       </c>
       <c r="AK9">
-        <v>2472000000</v>
+        <v>2198296000</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="AN9">
-        <v>2436601307.189543</v>
+        <v>2266233333.333333</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1803,43 +1929,43 @@
         <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>44227</v>
+        <v>40573</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J10">
-        <v>16675000000</v>
+        <v>3543309000</v>
       </c>
       <c r="K10">
-        <v>6279000000</v>
+        <v>2134219000</v>
       </c>
       <c r="L10">
-        <v>10396000000</v>
+        <v>1409090000</v>
       </c>
       <c r="M10">
-        <v>0.623448275862069</v>
+        <v>0.3976762963659111</v>
       </c>
       <c r="N10">
-        <v>3924000000</v>
+        <v>848830000</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1848,76 +1974,76 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1940000000</v>
+        <v>418513000</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-114000000</v>
       </c>
       <c r="S10">
-        <v>5864000000</v>
+        <v>1153343000</v>
       </c>
       <c r="T10">
-        <v>12143000000</v>
+        <v>3287562000</v>
       </c>
       <c r="U10">
-        <v>57000000</v>
+        <v>19057000</v>
       </c>
       <c r="V10">
-        <v>184000000</v>
+        <v>3127000</v>
       </c>
       <c r="W10">
-        <v>1098000000</v>
+        <v>186989000</v>
       </c>
       <c r="X10">
-        <v>5691000000</v>
+        <v>461285000</v>
       </c>
       <c r="Y10">
-        <v>0.3412893553223388</v>
+        <v>0.1301848074779818</v>
       </c>
       <c r="Z10">
-        <v>4532000000</v>
+        <v>255747000</v>
       </c>
       <c r="AA10">
-        <v>0.271784107946027</v>
+        <v>0.07217744769084491</v>
       </c>
       <c r="AB10">
-        <v>-123000000</v>
+        <v>15422000</v>
       </c>
       <c r="AC10">
-        <v>4409000000</v>
+        <v>271169000</v>
       </c>
       <c r="AD10">
-        <v>0.264407796101949</v>
+        <v>0.0765298764516445</v>
       </c>
       <c r="AE10">
-        <v>77000000</v>
+        <v>18023000</v>
       </c>
       <c r="AF10">
-        <v>4332000000</v>
+        <v>253146000</v>
       </c>
       <c r="AG10">
-        <v>0.2597901049475262</v>
+        <v>0.0714433880872371</v>
       </c>
       <c r="AH10">
-        <v>1.755</v>
+        <v>0.11</v>
       </c>
       <c r="AI10">
-        <v>1.725</v>
+        <v>0.1075</v>
       </c>
       <c r="AJ10">
-        <v>2468000000</v>
+        <v>2300708000</v>
       </c>
       <c r="AK10">
-        <v>2512000000</v>
+        <v>2354736000</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AN10">
-        <v>2468376068.376069</v>
+        <v>2301327272.727273</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1925,120 +2051,1340 @@
         <v>49</v>
       </c>
       <c r="B11" s="2">
+        <v>40937</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11">
+        <v>3997930000</v>
+      </c>
+      <c r="K11">
+        <v>1941413000</v>
+      </c>
+      <c r="L11">
+        <v>2056517000</v>
+      </c>
+      <c r="M11">
+        <v>0.5143954496451913</v>
+      </c>
+      <c r="N11">
+        <v>1002605000</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>405613000</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1408218000</v>
+      </c>
+      <c r="T11">
+        <v>3349631000</v>
+      </c>
+      <c r="U11">
+        <v>19149000</v>
+      </c>
+      <c r="V11">
+        <v>3089000</v>
+      </c>
+      <c r="W11">
+        <v>204205000</v>
+      </c>
+      <c r="X11">
+        <v>870690000</v>
+      </c>
+      <c r="Y11">
+        <v>0.2177852038429887</v>
+      </c>
+      <c r="Z11">
+        <v>648299000</v>
+      </c>
+      <c r="AA11">
+        <v>0.1621586671102296</v>
+      </c>
+      <c r="AB11">
+        <v>15097000</v>
+      </c>
+      <c r="AC11">
+        <v>663396000</v>
+      </c>
+      <c r="AD11">
+        <v>0.1659348712958956</v>
+      </c>
+      <c r="AE11">
+        <v>82306000</v>
+      </c>
+      <c r="AF11">
+        <v>581090000</v>
+      </c>
+      <c r="AG11">
+        <v>0.1453477174437771</v>
+      </c>
+      <c r="AH11">
+        <v>0.24</v>
+      </c>
+      <c r="AI11">
+        <v>0.235</v>
+      </c>
+      <c r="AJ11">
+        <v>2414584000</v>
+      </c>
+      <c r="AK11">
+        <v>2465484000</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN11">
+        <v>2421208333.333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>41301</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12">
+        <v>4280159000</v>
+      </c>
+      <c r="K12">
+        <v>2053816000</v>
+      </c>
+      <c r="L12">
+        <v>2226343000</v>
+      </c>
+      <c r="M12">
+        <v>0.5201542746426009</v>
+      </c>
+      <c r="N12">
+        <v>1147282000</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>430822000</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1578104000</v>
+      </c>
+      <c r="T12">
+        <v>3631920000</v>
+      </c>
+      <c r="U12">
+        <v>19908000</v>
+      </c>
+      <c r="V12">
+        <v>3294000</v>
+      </c>
+      <c r="W12">
+        <v>226235000</v>
+      </c>
+      <c r="X12">
+        <v>891568000</v>
+      </c>
+      <c r="Y12">
+        <v>0.2083025420317329</v>
+      </c>
+      <c r="Z12">
+        <v>648239000</v>
+      </c>
+      <c r="AA12">
+        <v>0.1514520839062287</v>
+      </c>
+      <c r="AB12">
+        <v>13800000</v>
+      </c>
+      <c r="AC12">
+        <v>662039000</v>
+      </c>
+      <c r="AD12">
+        <v>0.1546762631948953</v>
+      </c>
+      <c r="AE12">
+        <v>99503000</v>
+      </c>
+      <c r="AF12">
+        <v>562536000</v>
+      </c>
+      <c r="AG12">
+        <v>0.1314287623427074</v>
+      </c>
+      <c r="AH12">
+        <v>0.2275</v>
+      </c>
+      <c r="AI12">
+        <v>0.225</v>
+      </c>
+      <c r="AJ12">
+        <v>2477296000</v>
+      </c>
+      <c r="AK12">
+        <v>2499828000</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN12">
+        <v>2472685714.285714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2">
+        <v>41665</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13">
+        <v>4130162000</v>
+      </c>
+      <c r="K13">
+        <v>1862399000</v>
+      </c>
+      <c r="L13">
+        <v>2267763000</v>
+      </c>
+      <c r="M13">
+        <v>0.5490736198725377</v>
+      </c>
+      <c r="N13">
+        <v>1335834000</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>435702000</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1771536000</v>
+      </c>
+      <c r="T13">
+        <v>3633935000</v>
+      </c>
+      <c r="U13">
+        <v>17119000</v>
+      </c>
+      <c r="V13">
+        <v>10443000</v>
+      </c>
+      <c r="W13">
+        <v>239148000</v>
+      </c>
+      <c r="X13">
+        <v>759845000</v>
+      </c>
+      <c r="Y13">
+        <v>0.1839746237556784</v>
+      </c>
+      <c r="Z13">
+        <v>496227000</v>
+      </c>
+      <c r="AA13">
+        <v>0.1201471031886885</v>
+      </c>
+      <c r="AB13">
+        <v>14027000</v>
+      </c>
+      <c r="AC13">
+        <v>510254000</v>
+      </c>
+      <c r="AD13">
+        <v>0.1235433380095018</v>
+      </c>
+      <c r="AE13">
+        <v>70264000</v>
+      </c>
+      <c r="AF13">
+        <v>439990000</v>
+      </c>
+      <c r="AG13">
+        <v>0.1065309302637524</v>
+      </c>
+      <c r="AH13">
+        <v>0.1875</v>
+      </c>
+      <c r="AI13">
+        <v>0.185</v>
+      </c>
+      <c r="AJ13">
+        <v>2351572000</v>
+      </c>
+      <c r="AK13">
+        <v>2378068000</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN13">
+        <v>2346613333.333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42029</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14">
+        <v>4681507000</v>
+      </c>
+      <c r="K14">
+        <v>2082030000</v>
+      </c>
+      <c r="L14">
+        <v>2599477000</v>
+      </c>
+      <c r="M14">
+        <v>0.5552650033418726</v>
+      </c>
+      <c r="N14">
+        <v>1359725000</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>480763000</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1840488000</v>
+      </c>
+      <c r="T14">
+        <v>3922518000</v>
+      </c>
+      <c r="U14">
+        <v>28090000</v>
+      </c>
+      <c r="V14">
+        <v>46133000</v>
+      </c>
+      <c r="W14">
+        <v>220125000</v>
+      </c>
+      <c r="X14">
+        <v>1021094000</v>
+      </c>
+      <c r="Y14">
+        <v>0.218112244625502</v>
+      </c>
+      <c r="Z14">
+        <v>758989000</v>
+      </c>
+      <c r="AA14">
+        <v>0.1621249311386269</v>
+      </c>
+      <c r="AB14">
+        <v>-4153000</v>
+      </c>
+      <c r="AC14">
+        <v>754836000</v>
+      </c>
+      <c r="AD14">
+        <v>0.1612378236324329</v>
+      </c>
+      <c r="AE14">
+        <v>124249000</v>
+      </c>
+      <c r="AF14">
+        <v>630587000</v>
+      </c>
+      <c r="AG14">
+        <v>0.1346974382394387</v>
+      </c>
+      <c r="AH14">
+        <v>0.285</v>
+      </c>
+      <c r="AI14">
+        <v>0.28</v>
+      </c>
+      <c r="AJ14">
+        <v>2209276000</v>
+      </c>
+      <c r="AK14">
+        <v>2252272000</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN14">
+        <v>2212585964.912281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42400</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15">
+        <v>5010000000</v>
+      </c>
+      <c r="K15">
+        <v>2199000000</v>
+      </c>
+      <c r="L15">
+        <v>2811000000</v>
+      </c>
+      <c r="M15">
+        <v>0.5610778443113772</v>
+      </c>
+      <c r="N15">
+        <v>1331000000</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>602000000</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1933000000</v>
+      </c>
+      <c r="T15">
+        <v>4132000000</v>
+      </c>
+      <c r="U15">
+        <v>39000000</v>
+      </c>
+      <c r="V15">
+        <v>47000000</v>
+      </c>
+      <c r="W15">
+        <v>197000000</v>
+      </c>
+      <c r="X15">
+        <v>987000000</v>
+      </c>
+      <c r="Y15">
+        <v>0.1970059880239521</v>
+      </c>
+      <c r="Z15">
+        <v>747000000</v>
+      </c>
+      <c r="AA15">
+        <v>0.1491017964071856</v>
+      </c>
+      <c r="AB15">
+        <v>-4000000</v>
+      </c>
+      <c r="AC15">
+        <v>743000000</v>
+      </c>
+      <c r="AD15">
+        <v>0.1483033932135729</v>
+      </c>
+      <c r="AE15">
+        <v>129000000</v>
+      </c>
+      <c r="AF15">
+        <v>614000000</v>
+      </c>
+      <c r="AG15">
+        <v>0.1225548902195609</v>
+      </c>
+      <c r="AH15">
+        <v>0.2825</v>
+      </c>
+      <c r="AI15">
+        <v>0.27</v>
+      </c>
+      <c r="AJ15">
+        <v>2172000000</v>
+      </c>
+      <c r="AK15">
+        <v>2276000000</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN15">
+        <v>2173451327.433629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42764</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16">
+        <v>6910000000</v>
+      </c>
+      <c r="K16">
+        <v>2847000000</v>
+      </c>
+      <c r="L16">
+        <v>4063000000</v>
+      </c>
+      <c r="M16">
+        <v>0.5879884225759768</v>
+      </c>
+      <c r="N16">
+        <v>1463000000</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>663000000</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>2126000000</v>
+      </c>
+      <c r="T16">
+        <v>4973000000</v>
+      </c>
+      <c r="U16">
+        <v>54000000</v>
+      </c>
+      <c r="V16">
+        <v>58000000</v>
+      </c>
+      <c r="W16">
+        <v>187000000</v>
+      </c>
+      <c r="X16">
+        <v>2150000000</v>
+      </c>
+      <c r="Y16">
+        <v>0.3111432706222865</v>
+      </c>
+      <c r="Z16">
+        <v>1934000000</v>
+      </c>
+      <c r="AA16">
+        <v>0.2798842257597685</v>
+      </c>
+      <c r="AB16">
+        <v>-29000000</v>
+      </c>
+      <c r="AC16">
+        <v>1905000000</v>
+      </c>
+      <c r="AD16">
+        <v>0.2756874095513748</v>
+      </c>
+      <c r="AE16">
+        <v>239000000</v>
+      </c>
+      <c r="AF16">
+        <v>1666000000</v>
+      </c>
+      <c r="AG16">
+        <v>0.2410998552821997</v>
+      </c>
+      <c r="AH16">
+        <v>0.77</v>
+      </c>
+      <c r="AI16">
+        <v>0.6425</v>
+      </c>
+      <c r="AJ16">
+        <v>2164000000</v>
+      </c>
+      <c r="AK16">
+        <v>2596000000</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN16">
+        <v>2163636363.636364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17">
+        <v>9714000000</v>
+      </c>
+      <c r="K17">
+        <v>3892000000</v>
+      </c>
+      <c r="L17">
+        <v>5822000000</v>
+      </c>
+      <c r="M17">
+        <v>0.5993411570928556</v>
+      </c>
+      <c r="N17">
+        <v>1797000000</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>815000000</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>2612000000</v>
+      </c>
+      <c r="T17">
+        <v>6504000000</v>
+      </c>
+      <c r="U17">
+        <v>69000000</v>
+      </c>
+      <c r="V17">
+        <v>61000000</v>
+      </c>
+      <c r="W17">
+        <v>199000000</v>
+      </c>
+      <c r="X17">
+        <v>3456000000</v>
+      </c>
+      <c r="Y17">
+        <v>0.355775169857937</v>
+      </c>
+      <c r="Z17">
+        <v>3210000000</v>
+      </c>
+      <c r="AA17">
+        <v>0.3304508956145769</v>
+      </c>
+      <c r="AB17">
+        <v>-14000000</v>
+      </c>
+      <c r="AC17">
+        <v>3196000000</v>
+      </c>
+      <c r="AD17">
+        <v>0.3290096767551987</v>
+      </c>
+      <c r="AE17">
+        <v>149000000</v>
+      </c>
+      <c r="AF17">
+        <v>3047000000</v>
+      </c>
+      <c r="AG17">
+        <v>0.3136709903232448</v>
+      </c>
+      <c r="AH17">
+        <v>1.2725</v>
+      </c>
+      <c r="AI17">
+        <v>1.205</v>
+      </c>
+      <c r="AJ17">
+        <v>2396000000</v>
+      </c>
+      <c r="AK17">
+        <v>2528000000</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN17">
+        <v>2394499017.681729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43492</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18">
+        <v>11716000000</v>
+      </c>
+      <c r="K18">
+        <v>4545000000</v>
+      </c>
+      <c r="L18">
+        <v>7171000000</v>
+      </c>
+      <c r="M18">
+        <v>0.6120689655172413</v>
+      </c>
+      <c r="N18">
+        <v>2376000000</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>991000000</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>3367000000</v>
+      </c>
+      <c r="T18">
+        <v>7912000000</v>
+      </c>
+      <c r="U18">
+        <v>136000000</v>
+      </c>
+      <c r="V18">
+        <v>58000000</v>
+      </c>
+      <c r="W18">
+        <v>262000000</v>
+      </c>
+      <c r="X18">
+        <v>4216000000</v>
+      </c>
+      <c r="Y18">
+        <v>0.3598497780812564</v>
+      </c>
+      <c r="Z18">
+        <v>3804000000</v>
+      </c>
+      <c r="AA18">
+        <v>0.3246841925571868</v>
+      </c>
+      <c r="AB18">
+        <v>92000000</v>
+      </c>
+      <c r="AC18">
+        <v>3896000000</v>
+      </c>
+      <c r="AD18">
+        <v>0.3325367019460567</v>
+      </c>
+      <c r="AE18">
+        <v>-245000000</v>
+      </c>
+      <c r="AF18">
+        <v>4141000000</v>
+      </c>
+      <c r="AG18">
+        <v>0.353448275862069</v>
+      </c>
+      <c r="AH18">
+        <v>1.7025</v>
+      </c>
+      <c r="AI18">
+        <v>1.6575</v>
+      </c>
+      <c r="AJ18">
+        <v>2432000000</v>
+      </c>
+      <c r="AK18">
+        <v>2500000000</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN18">
+        <v>2432305433.186491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43856</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19">
+        <v>10918000000</v>
+      </c>
+      <c r="K19">
+        <v>4150000000</v>
+      </c>
+      <c r="L19">
+        <v>6768000000</v>
+      </c>
+      <c r="M19">
+        <v>0.619893753434695</v>
+      </c>
+      <c r="N19">
+        <v>2829000000</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1093000000</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>3922000000</v>
+      </c>
+      <c r="T19">
+        <v>8072000000</v>
+      </c>
+      <c r="U19">
+        <v>178000000</v>
+      </c>
+      <c r="V19">
+        <v>52000000</v>
+      </c>
+      <c r="W19">
+        <v>381000000</v>
+      </c>
+      <c r="X19">
+        <v>3403000000</v>
+      </c>
+      <c r="Y19">
+        <v>0.3116871221835501</v>
+      </c>
+      <c r="Z19">
+        <v>2846000000</v>
+      </c>
+      <c r="AA19">
+        <v>0.2606704524638212</v>
+      </c>
+      <c r="AB19">
+        <v>124000000</v>
+      </c>
+      <c r="AC19">
+        <v>2970000000</v>
+      </c>
+      <c r="AD19">
+        <v>0.2720278439274593</v>
+      </c>
+      <c r="AE19">
+        <v>174000000</v>
+      </c>
+      <c r="AF19">
+        <v>2796000000</v>
+      </c>
+      <c r="AG19">
+        <v>0.2560908591317091</v>
+      </c>
+      <c r="AH19">
+        <v>1.1475</v>
+      </c>
+      <c r="AI19">
+        <v>1.13</v>
+      </c>
+      <c r="AJ19">
+        <v>2436000000</v>
+      </c>
+      <c r="AK19">
+        <v>2472000000</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN19">
+        <v>2436601307.189543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44227</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20">
+        <v>16675000000</v>
+      </c>
+      <c r="K20">
+        <v>6279000000</v>
+      </c>
+      <c r="L20">
+        <v>10396000000</v>
+      </c>
+      <c r="M20">
+        <v>0.623448275862069</v>
+      </c>
+      <c r="N20">
+        <v>3924000000</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1940000000</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>5864000000</v>
+      </c>
+      <c r="T20">
+        <v>12143000000</v>
+      </c>
+      <c r="U20">
+        <v>57000000</v>
+      </c>
+      <c r="V20">
+        <v>184000000</v>
+      </c>
+      <c r="W20">
+        <v>1098000000</v>
+      </c>
+      <c r="X20">
+        <v>5691000000</v>
+      </c>
+      <c r="Y20">
+        <v>0.3412893553223388</v>
+      </c>
+      <c r="Z20">
+        <v>4532000000</v>
+      </c>
+      <c r="AA20">
+        <v>0.271784107946027</v>
+      </c>
+      <c r="AB20">
+        <v>-123000000</v>
+      </c>
+      <c r="AC20">
+        <v>4409000000</v>
+      </c>
+      <c r="AD20">
+        <v>0.264407796101949</v>
+      </c>
+      <c r="AE20">
+        <v>77000000</v>
+      </c>
+      <c r="AF20">
+        <v>4332000000</v>
+      </c>
+      <c r="AG20">
+        <v>0.2597901049475262</v>
+      </c>
+      <c r="AH20">
+        <v>1.755</v>
+      </c>
+      <c r="AI20">
+        <v>1.725</v>
+      </c>
+      <c r="AJ20">
+        <v>2468000000</v>
+      </c>
+      <c r="AK20">
+        <v>2512000000</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN20">
+        <v>2468376068.376069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2">
         <v>44591</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F21" t="s">
         <v>82</v>
       </c>
-      <c r="I11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11">
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21">
         <v>26914000000</v>
       </c>
-      <c r="K11">
+      <c r="K21">
         <v>9439000000</v>
       </c>
-      <c r="L11">
+      <c r="L21">
         <v>17475000000</v>
       </c>
-      <c r="M11">
+      <c r="M21">
         <v>0.6492903321691313</v>
       </c>
-      <c r="N11">
+      <c r="N21">
         <v>5268000000</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>2166000000</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>7434000000</v>
       </c>
-      <c r="T11">
+      <c r="T21">
         <v>16873000000</v>
       </c>
-      <c r="U11">
+      <c r="U21">
         <v>29000000</v>
       </c>
-      <c r="V11">
+      <c r="V21">
         <v>236000000</v>
       </c>
-      <c r="W11">
+      <c r="W21">
         <v>1174000000</v>
       </c>
-      <c r="X11">
+      <c r="X21">
         <v>11351000000</v>
       </c>
-      <c r="Y11">
+      <c r="Y21">
         <v>0.4217507616853682</v>
       </c>
-      <c r="Z11">
+      <c r="Z21">
         <v>10041000000</v>
       </c>
-      <c r="AA11">
+      <c r="AA21">
         <v>0.3730772088875678</v>
       </c>
-      <c r="AB11">
+      <c r="AB21">
         <v>-100000000</v>
       </c>
-      <c r="AC11">
+      <c r="AC21">
         <v>9941000000</v>
       </c>
-      <c r="AD11">
+      <c r="AD21">
         <v>0.3693616705060563</v>
       </c>
-      <c r="AE11">
+      <c r="AE21">
         <v>189000000</v>
       </c>
-      <c r="AF11">
+      <c r="AF21">
         <v>9752000000</v>
       </c>
-      <c r="AG11">
+      <c r="AG21">
         <v>0.3623393029649996</v>
       </c>
-      <c r="AH11">
+      <c r="AH21">
         <v>3.91</v>
       </c>
-      <c r="AI11">
+      <c r="AI21">
         <v>3.85</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ21">
         <v>2496000000</v>
       </c>
-      <c r="AK11">
+      <c r="AK21">
         <v>2535000000</v>
       </c>
-      <c r="AL11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN11">
+      <c r="AL21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN21">
         <v>2494117647.058824</v>
       </c>
     </row>
@@ -2046,24 +3392,38 @@
   <hyperlinks>
     <hyperlink ref="AL2" r:id="rId1"/>
     <hyperlink ref="AM2" r:id="rId2"/>
-    <hyperlink ref="AL3" r:id="rId3"/>
-    <hyperlink ref="AM3" r:id="rId4"/>
-    <hyperlink ref="AL4" r:id="rId5"/>
-    <hyperlink ref="AM4" r:id="rId6"/>
-    <hyperlink ref="AL5" r:id="rId7"/>
-    <hyperlink ref="AM5" r:id="rId8"/>
-    <hyperlink ref="AL6" r:id="rId9"/>
-    <hyperlink ref="AM6" r:id="rId10"/>
-    <hyperlink ref="AL7" r:id="rId11"/>
-    <hyperlink ref="AM7" r:id="rId12"/>
-    <hyperlink ref="AL8" r:id="rId13"/>
-    <hyperlink ref="AM8" r:id="rId14"/>
-    <hyperlink ref="AL9" r:id="rId15"/>
-    <hyperlink ref="AM9" r:id="rId16"/>
-    <hyperlink ref="AL10" r:id="rId17"/>
-    <hyperlink ref="AM10" r:id="rId18"/>
-    <hyperlink ref="AL11" r:id="rId19"/>
-    <hyperlink ref="AM11" r:id="rId20"/>
+    <hyperlink ref="AL4" r:id="rId3"/>
+    <hyperlink ref="AM4" r:id="rId4"/>
+    <hyperlink ref="AL5" r:id="rId5"/>
+    <hyperlink ref="AM5" r:id="rId6"/>
+    <hyperlink ref="AL6" r:id="rId7"/>
+    <hyperlink ref="AM6" r:id="rId8"/>
+    <hyperlink ref="AL9" r:id="rId9"/>
+    <hyperlink ref="AM9" r:id="rId10"/>
+    <hyperlink ref="AL10" r:id="rId11"/>
+    <hyperlink ref="AM10" r:id="rId12"/>
+    <hyperlink ref="AL11" r:id="rId13"/>
+    <hyperlink ref="AM11" r:id="rId14"/>
+    <hyperlink ref="AL12" r:id="rId15"/>
+    <hyperlink ref="AM12" r:id="rId16"/>
+    <hyperlink ref="AL13" r:id="rId17"/>
+    <hyperlink ref="AM13" r:id="rId18"/>
+    <hyperlink ref="AL14" r:id="rId19"/>
+    <hyperlink ref="AM14" r:id="rId20"/>
+    <hyperlink ref="AL15" r:id="rId21"/>
+    <hyperlink ref="AM15" r:id="rId22"/>
+    <hyperlink ref="AL16" r:id="rId23"/>
+    <hyperlink ref="AM16" r:id="rId24"/>
+    <hyperlink ref="AL17" r:id="rId25"/>
+    <hyperlink ref="AM17" r:id="rId26"/>
+    <hyperlink ref="AL18" r:id="rId27"/>
+    <hyperlink ref="AM18" r:id="rId28"/>
+    <hyperlink ref="AL19" r:id="rId29"/>
+    <hyperlink ref="AM19" r:id="rId30"/>
+    <hyperlink ref="AL20" r:id="rId31"/>
+    <hyperlink ref="AM20" r:id="rId32"/>
+    <hyperlink ref="AL21" r:id="rId33"/>
+    <hyperlink ref="AM21" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
